--- a/DateBase/orders/3333_2024-10-15.xlsx
+++ b/DateBase/orders/3333_2024-10-15.xlsx
@@ -717,6 +717,9 @@
       <c r="G2" t="str">
         <v>05030302010103102010103030201020101030301010101010</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/3333_2024-10-15.xlsx
+++ b/DateBase/orders/3333_2024-10-15.xlsx
@@ -717,9 +717,6 @@
       <c r="G2" t="str">
         <v>05030302010103102010103030201020101030301010101010</v>
       </c>
-      <c r="H2" t="str">
-        <v>CNY</v>
-      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/3333_2024-10-15.xlsx
+++ b/DateBase/orders/3333_2024-10-15.xlsx
@@ -648,6 +648,9 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="str">
+        <v>1</v>
+      </c>
       <c r="C26" t="str">
         <v>71_霜雪mini_Snowy_Gerbera L._20stems</v>
       </c>

--- a/DateBase/orders/3333_2024-10-15.xlsx
+++ b/DateBase/orders/3333_2024-10-15.xlsx
@@ -649,7 +649,7 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>1</v>
+        <v/>
       </c>
       <c r="C26" t="str">
         <v>71_霜雪mini_Snowy_Gerbera L._20stems</v>
